--- a/tspi/ciclo-2/logt1/20105627.xlsx
+++ b/tspi/ciclo-2/logt1/20105627.xlsx
@@ -181,18 +181,6 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -225,6 +213,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,254 +527,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK14"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="5"/>
-    <col min="2" max="3" width="12.21875" style="6"/>
-    <col min="4" max="4" width="17.109375" style="7"/>
-    <col min="5" max="5" width="11.109375" style="7"/>
-    <col min="6" max="7" width="12.21875" style="8"/>
-    <col min="8" max="8" width="48.109375" style="9"/>
-    <col min="9" max="1025" width="12.21875" style="8"/>
+    <col min="1" max="1" width="12.21875" style="1"/>
+    <col min="2" max="3" width="12.21875" style="2"/>
+    <col min="4" max="4" width="17.109375" style="3"/>
+    <col min="5" max="5" width="11.109375" style="3"/>
+    <col min="6" max="7" width="12.21875" style="4"/>
+    <col min="8" max="8" width="48.109375" style="5"/>
+    <col min="9" max="1025" width="12.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="16"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="17">
         <v>41923</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="18"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="19">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="E5" s="7">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
         <f>SUM(E7:E11)/60</f>
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>41924</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>0.63541666666666696</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>0.65625</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <f>((HOUR(C7)-HOUR(B7))*60)+(MINUTE(C7)-MINUTE(B7))-D7</f>
         <v>30</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>24</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>41924</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="2">
         <v>0.65972222222222199</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>0.67708333333333304</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <f>((HOUR(C8)-HOUR(B8))*60)+(MINUTE(C8)-MINUTE(B8))-D8</f>
         <v>25</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>25</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>41927</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <v>0.3263888888888889</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>30</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>190</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>41929</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="2">
         <v>0.84375</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>60</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>135</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="4">
+        <v>41</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>41930</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="2">
         <v>0.84375</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>60</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>195</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="4">
+        <v>41</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>41931</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
         <v>0.25</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>120</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="4">
+        <v>41</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>41931</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>0.68333333333333302</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>0.70972222222222203</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <f>((HOUR(C13)-HOUR(B13))*60)+(MINUTE(C13)-MINUTE(B13))-D13</f>
         <v>38</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <v>32</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>

--- a/tspi/ciclo-2/logt1/20105627.xlsx
+++ b/tspi/ciclo-2/logt1/20105627.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Aprendiendo Ruby(Nivel bajo)</t>
+  </si>
+  <si>
+    <t>Aprendiendo Ruby on Rails</t>
+  </si>
+  <si>
+    <t>Pensando y haciendo un borrador para el diagrama de flujo de calendarización</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK13"/>
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -784,6 +790,49 @@
       </c>
       <c r="H13" s="15" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41933</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D14" s="3">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>110</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41934</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="4">
+        <v>31</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/ciclo-2/logt1/20105627.xlsx
+++ b/tspi/ciclo-2/logt1/20105627.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="logt1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -67,25 +67,19 @@
     <t>Definir la estrategía de desarrolo del ciclo #2 de TSPi.</t>
   </si>
   <si>
+    <t>Resolviendo e instalando RedMine 2.3.4</t>
+  </si>
+  <si>
+    <t>Aprendiendo Ruby(Nivel Alto)</t>
+  </si>
+  <si>
+    <t>Aprendiendo Ruby(Nivel Medio)</t>
+  </si>
+  <si>
+    <t>Aprendiendo Ruby(Nivel bajo)</t>
+  </si>
+  <si>
     <t>Presentar al equipo de la herramienta Redmine.</t>
-  </si>
-  <si>
-    <t>Resolviendo e instalando RedMine 2.3.4</t>
-  </si>
-  <si>
-    <t>Aprendiendo Ruby(Nivel Alto)</t>
-  </si>
-  <si>
-    <t>Aprendiendo Ruby(Nivel Medio)</t>
-  </si>
-  <si>
-    <t>Aprendiendo Ruby(Nivel bajo)</t>
-  </si>
-  <si>
-    <t>Aprendiendo Ruby on Rails</t>
-  </si>
-  <si>
-    <t>Pensando y haciendo un borrador para el diagrama de flujo de calendarización</t>
   </si>
 </sst>
 </file>
@@ -533,21 +527,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK15"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="1"/>
-    <col min="2" max="3" width="12.21875" style="2"/>
-    <col min="4" max="4" width="17.109375" style="3"/>
-    <col min="5" max="5" width="11.109375" style="3"/>
-    <col min="6" max="7" width="12.21875" style="4"/>
-    <col min="8" max="8" width="48.109375" style="5"/>
-    <col min="9" max="1025" width="12.21875" style="4"/>
+    <col min="1" max="1" width="12.28515625" style="1"/>
+    <col min="2" max="3" width="12.28515625" style="2"/>
+    <col min="4" max="4" width="17.140625" style="3"/>
+    <col min="5" max="5" width="11.140625" style="3"/>
+    <col min="6" max="7" width="12.28515625" style="4"/>
+    <col min="8" max="8" width="48.140625" style="5"/>
+    <col min="9" max="1025" width="12.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -719,7 +713,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,7 +736,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -765,7 +759,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -773,66 +767,22 @@
         <v>41931</v>
       </c>
       <c r="B13" s="2">
-        <v>0.68333333333333302</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="C13" s="2">
-        <v>0.70972222222222203</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <f>((HOUR(C13)-HOUR(B13))*60)+(MINUTE(C13)-MINUTE(B13))-D13</f>
         <v>38</v>
       </c>
       <c r="F13" s="13">
         <v>32</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>41933</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D14" s="3">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3">
-        <v>110</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>41934</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D15" s="3">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
-      </c>
-      <c r="F15" s="4">
-        <v>31</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
